--- a/data/trans_camb/P25A_6_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_6_R2-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,96</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>33,84</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>29,3</t>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,23</t>
+          <t>-2,24; 1,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 1,19</t>
+          <t>-2,16; 1,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,95; 38,35</t>
+          <t>-2,36; 1,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,43</t>
+          <t>-0,51; 3,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,4</t>
+          <t>0,01; 3,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,74; 51,04</t>
+          <t>-0,83; 2,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,2</t>
+          <t>-1,69; 1,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,78</t>
+          <t>-0,12; 4,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,56; 39,56</t>
+          <t>-3,64; 0,66</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 1,83</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 1,34</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 0,75</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 2,21</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,31; 1,48</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 1,92</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-22,07%</t>
+          <t>-21,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-15,35%</t>
+          <t>-16,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1050,6%</t>
+          <t>-28,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,45%</t>
+          <t>82,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>90,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2044,65%</t>
+          <t>48,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>-6,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,67%</t>
+          <t>106,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1499,05%</t>
+          <t>-32,28%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-1,01%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9,82%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-12,2%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>32,6%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>34,29%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-68,07; 93,14</t>
+          <t>-66,82; 101,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-61,6; 86,37</t>
+          <t>-62,59; 81,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>402,04; 2393,8</t>
+          <t>-70,85; 92,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,74; 245,79</t>
+          <t>-28,2; 404,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,58; 145,81</t>
+          <t>-5,25; 359,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>800,16; 4833,26</t>
+          <t>-39,33; 282,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,51; 79,66</t>
+          <t>-66,43; 124,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,63; 60,29</t>
+          <t>-15,39; 398,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>882,1; 2601,93</t>
+          <t>-66,73; 39,22</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-50,83; 119,26</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-39,73; 90,43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-51,84; 49,43</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-25,97; 145,21</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-37,15; 77,82</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-17,64; 121,71</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>41,78</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>64,77</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>55,74</t>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,54</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-2,11</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-1,46</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,17</t>
+          <t>-1,98; 1,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,35</t>
+          <t>-1,58; 2,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,8; 73,34</t>
+          <t>-1,08; 3,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,11</t>
+          <t>-4,47; 0,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,86</t>
+          <t>-3,0; 1,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,49; 87,03</t>
+          <t>-3,19; 0,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 0,63</t>
+          <t>-1,89; 4,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,92</t>
+          <t>-0,9; 4,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>31,72; 75,04</t>
+          <t>-5,46; 0,55</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,32; 1,04</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 0,54</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 2,19</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 3,03</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; -0,22</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 0,43</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-16,41%</t>
+          <t>-16,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2126,66%</t>
+          <t>39,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-31,73%</t>
+          <t>-56,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>-27,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2230,99%</t>
+          <t>-33,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-25,66%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>47,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2287,24%</t>
+          <t>-55,41%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-55,49%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-26,33%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9,13%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>44,51%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-56,29%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-47,17%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-67,42; 105,38</t>
+          <t>-65,07; 119,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,79; 215,04</t>
+          <t>-62,23; 212,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>528,35; 5423,73</t>
+          <t>-46,81; 295,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-71,5; 67,39</t>
+          <t>-92,06; 58,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,14; 161,51</t>
+          <t>-100,0; 452,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>859,72; 4393,09</t>
+          <t>-70,85; 60,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-58,4; 37,81</t>
+          <t>-52,64; 213,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,96; 113,52</t>
+          <t>-28,86; 221,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1157,83; 4053,34</t>
+          <t>-88,01; 40,22</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-89,86; 112,57</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-63,76; 29,51</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-46,67; 107,31</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-22,57; 149,41</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-82,63; 3,78</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-81,61; 39,05</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,67</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 6,5</t>
+          <t>-2,94; 6,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 0,55</t>
+          <t>-6,75; 0,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-4,68; 5,6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,16; 3,55</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 6,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-5,34; 3,23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 6,5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,46; 5,52</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-2,08; 3,93</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-2,73; 2,78</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,68; 3,64</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 2,32</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-3,37; 3,78</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>79,39%</t>
+          <t>56,75%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-66,09%</t>
+          <t>-70,63%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-5,77%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-9,5%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>72,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-15,3%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>51,93%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>10,4%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>35,05%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,98%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>22,08%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-11,72%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,96; 664,21</t>
+          <t>-61,27; 643,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 582,83</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 367,84</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-64,19; 610,82</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-72,24; 595,27</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-50,69; 285,74</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-68,9; 195,75</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-53,32; 224,67</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-73,07; 156,5</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-74,24; 254,13</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>27,05</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>40,02</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>34,23</t>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,05</t>
+          <t>-1,26; 0,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,83</t>
+          <t>-1,68; 0,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,19; 41,49</t>
+          <t>-1,35; 1,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,16</t>
+          <t>-1,2; 1,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,7</t>
+          <t>-0,17; 2,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,62; 54,35</t>
+          <t>-1,26; 1,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,76</t>
+          <t>-1,04; 1,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,83</t>
+          <t>0,01; 3,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,87; 43,14</t>
+          <t>-3,29; -0,2</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 0,98</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 0,79</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 0,99</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 1,97</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 0,46</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 1,27</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,76%</t>
+          <t>-6,21%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-13,4%</t>
+          <t>-18,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1224,77%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>59,9%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1765,18%</t>
+          <t>-0,96%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>63,22%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1529,33%</t>
+          <t>-40,63%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-19,46%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-3,49%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-3,13%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>32,74%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-21,73%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>8,96%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,98; 69,18</t>
+          <t>-43,87; 57,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,92; 56,36</t>
+          <t>-54,49; 40,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>619,6; 2371,7</t>
+          <t>-46,16; 82,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,15; 66,46</t>
+          <t>-40,36; 121,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,46; 103,54</t>
+          <t>-9,77; 232,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1008,52; 3016,59</t>
+          <t>-43,24; 70,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,38; 40,13</t>
+          <t>-34,84; 111,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,72; 46,5</t>
+          <t>-1,89; 176,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>991,48; 2186,99</t>
+          <t>-66,0; 0,88</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-57,04; 51,96</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-33,08; 42,17</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-34,6; 54,32</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-7,98; 99,36</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-47,8; 19,1</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-31,62; 71,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
